--- a/with logs for unschedule with saturday sunday/excel_schedules/section_2E_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_2E_genetic_schedule.xlsx
@@ -518,7 +518,134 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>8:30 AM - 9:00 AM</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>HI 209 - History
+2E
+Room 173</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>DR 210 - Drama
+2E
+Room 174</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>SO 213 - Sociology
+2E
+Room 179</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n"/>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>AR 206 - Art Studio
 2E
@@ -526,217 +653,80 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>8:30 AM - 9:00 AM</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>LI 207 - Literature
-2E
-Room 169</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>SO 213 - Sociology
-2E
-Room 179</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>HI 209 - History
-2E
-Room 173</t>
-        </is>
-      </c>
-    </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="50" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>4:00 PM - 4:30 PM</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="50" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>4:30 PM - 5:00 PM</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n"/>
+    </row>
+    <row r="20" ht="50" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5:00 PM - 5:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5:30 PM - 6:00 PM</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>DR 210 - Drama
+2E
+Room 175</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n"/>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>PH 212 - Photography
 2E
 Room 177</t>
         </is>
       </c>
-      <c r="E17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>4:00 PM - 4:30 PM</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>4:30 PM - 5:00 PM</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5:00 PM - 5:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5:30 PM - 6:00 PM</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>DR 210 - Drama
-2E
-Room 175</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>MU 208 - Music
-2E
-Room 171</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -744,13 +734,7 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>AR 206 - Art Studio
-2E
-Room 168</t>
-        </is>
-      </c>
+      <c r="B25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -768,17 +752,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B17:B19"/>
+  <mergeCells count="9">
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B16:B19"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
